--- a/theta.xlsx
+++ b/theta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09600509253787193</v>
+        <v>0.0944908155738835</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>9.515538725856853</v>
+        <v>9.485734323338843</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3588263201268631</v>
+        <v>0.3619867458586201</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>-7</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.61236640022963</v>
+        <v>-7.618160562657283</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,18 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>6.214971700172917</v>
+        <v>6.214721490785919</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01818419854321049</v>
       </c>
     </row>
   </sheetData>
